--- a/app_demo/output/M0001_final result_output.xlsx
+++ b/app_demo/output/M0001_final result_output.xlsx
@@ -479,7 +479,7 @@
         <v>243079.015625</v>
       </c>
       <c r="E2" t="n">
-        <v>173.0482382604872</v>
+        <v>201.6441618922246</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         <v>619857.625</v>
       </c>
       <c r="E3" t="n">
-        <v>34.02116035892784</v>
+        <v>39.64309857260992</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         <v>316576.84375</v>
       </c>
       <c r="E4" t="n">
-        <v>17.37546031984682</v>
+        <v>20.246725242086</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>408102.8125</v>
       </c>
       <c r="E5" t="n">
-        <v>22.39890366274346</v>
+        <v>26.10028395423359</v>
       </c>
     </row>
     <row r="6">
@@ -563,7 +563,7 @@
         <v>71283.9296875</v>
       </c>
       <c r="E6" t="n">
-        <v>22.85783039513878</v>
+        <v>26.63504753954378</v>
       </c>
     </row>
     <row r="7">
@@ -584,7 +584,7 @@
         <v>241352.453125</v>
       </c>
       <c r="E7" t="n">
-        <v>77.39182538290015</v>
+        <v>90.18069136972883</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         <v>121311.453125</v>
       </c>
       <c r="E8" t="n">
-        <v>38.89960377710943</v>
+        <v>45.32769637196515</v>
       </c>
     </row>
     <row r="9">
@@ -626,7 +626,7 @@
         <v>154673.640625</v>
       </c>
       <c r="E9" t="n">
-        <v>49.5974879542151</v>
+        <v>57.79338750292836</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>315242.46875</v>
       </c>
       <c r="E10" t="n">
-        <v>17.30222255681383</v>
+        <v>20.16138506472216</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>631826.0625</v>
       </c>
       <c r="E11" t="n">
-        <v>202.6006848831997</v>
+        <v>236.0800994724238</v>
       </c>
     </row>
     <row r="12">
@@ -689,7 +689,7 @@
         <v>78785.8828125</v>
       </c>
       <c r="E12" t="n">
-        <v>4.324198082073701</v>
+        <v>5.038764375070857</v>
       </c>
     </row>
     <row r="13">
@@ -710,7 +710,7 @@
         <v>450048.4375</v>
       </c>
       <c r="E13" t="n">
-        <v>144.3120616255267</v>
+        <v>168.1593815108076</v>
       </c>
     </row>
     <row r="14">
@@ -731,7 +731,7 @@
         <v>210088.78125</v>
       </c>
       <c r="E14" t="n">
-        <v>67.36684903295949</v>
+        <v>78.49910492658775</v>
       </c>
     </row>
     <row r="15">
@@ -752,7 +752,7 @@
         <v>118031.015625</v>
       </c>
       <c r="E15" t="n">
-        <v>37.84770211672718</v>
+        <v>44.10196977207032</v>
       </c>
     </row>
     <row r="16">
@@ -773,7 +773,7 @@
         <v>73060.8125</v>
       </c>
       <c r="E16" t="n">
-        <v>52.01207869176709</v>
+        <v>60.60698520539958</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +845,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>173.0482382604872</t>
+          <t>201.64416189222462</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)Cl)(F)F)(F)F)(C(C(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(F)F)(F)F with Similarity: 0.07407407407407407</t>
+          <t>Best Match: C(C(C(C(F)(F)Cl)(F)F)(F)F)(C(C(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(F)F)(F)F with Similarity: 0.0740740740740741</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -901,7 +901,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>34.02116035892784</t>
+          <t>39.643098572609915</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Best Match: C(C(F)(F)F)(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F with Similarity: 0.061224489795918366</t>
+          <t>Best Match: C(C(F)(F)F)(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F with Similarity: 0.0612244897959184</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -957,7 +957,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17.375460319846823</t>
+          <t>20.246725242086</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Best Match: C(C(F)(F)F)(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F with Similarity: 0.06521739130434782</t>
+          <t>Best Match: C(C(F)(F)F)(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F with Similarity: 0.0652173913043478</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22.398903662743457</t>
+          <t>26.10028395423359</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Best Match: C(C(F)(F)F)(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F with Similarity: 0.05405405405405406</t>
+          <t>Best Match: C(C(F)(F)F)(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F with Similarity: 0.0540540540540541</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>22.857830395138777</t>
+          <t>26.635047539543784</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.06306306306306306</t>
+          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.0630630630630631</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>77.39182538290015</t>
+          <t>90.18069136972883</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.043478260869565216</t>
+          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.0434782608695652</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>38.899603777109434</t>
+          <t>45.32769637196515</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.03508771929824561</t>
+          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.0350877192982456</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>49.5974879542151</t>
+          <t>57.79338750292836</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.07894736842105263</t>
+          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.0789473684210526</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17.30222255681383</t>
+          <t>20.16138506472216</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>202.60068488319973</t>
+          <t>236.0800994724238</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.044444444444444446</t>
+          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.0444444444444444</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.324198082073701</t>
+          <t>5.038764375070857</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Best Match: C(C(F)(F)F)(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F with Similarity: 0.05263157894736842</t>
+          <t>Best Match: C(C(F)(F)F)(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F with Similarity: 0.0526315789473684</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>144.31206162552672</t>
+          <t>168.15938151080763</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.025974025974025976</t>
+          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.025974025974026</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>67.3668490329595</t>
+          <t>78.49910492658775</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.022222222222222223</t>
+          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.0222222222222222</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>37.84770211672718</t>
+          <t>44.10196977207032</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.031578947368421054</t>
+          <t>Best Match: C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(C(C(F)(F)F)(F)F)(F)F with Similarity: 0.0315789473684211</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>52.01207869176709</t>
+          <t>60.60698520539958</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Best Match: C(C(C(C(F)(F)Cl)(F)F)(F)F)(C(C(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(F)F)(F)F with Similarity: 0.046296296296296294</t>
+          <t>Best Match: C(C(C(C(F)(F)Cl)(F)F)(F)F)(C(C(OC(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(F)F)(F)F with Similarity: 0.0462962962962963</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
